--- a/public/excels/LISTADO_FACULTATIVOS_FICTICIO.xlsx
+++ b/public/excels/LISTADO_FACULTATIVOS_FICTICIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Raulhp579-BackGestorGuardias\public\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551F40F3-8355-4BE9-A95F-72A600670A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73163DDB-C3B2-4EE9-A3A0-DCB5C08E612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
